--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\2018-19 Test Plan for TAX,NI,Socttish Tax\201819 Payroll Tax Module Input excel files - Correct files as all parameters are introduced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView activeTab="3" windowHeight="7530" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,6 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,54 +282,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,10 +346,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -383,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +541,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -549,13 +550,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -565,7 +566,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -574,7 +575,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -583,7 +584,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -593,12 +594,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -629,7 +630,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -648,7 +649,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -660,19 +661,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -703,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -746,25 +747,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -793,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.149999999999999" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -820,7 +821,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -840,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -860,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -880,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -900,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -920,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
@@ -940,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
@@ -960,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -980,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -1021,31 +1022,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1089,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="3" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>33</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="4" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="5" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="6" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="7" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="8" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="9" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="10" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="11" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="12" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1476,37 +1477,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A12" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A12"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="7.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1553,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1593,9 +1594,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="7530" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,7 +214,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,54 +281,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -346,10 +345,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -384,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,7 +435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,7 +540,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -550,13 +549,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -566,7 +565,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -575,7 +574,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -584,7 +583,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -594,12 +593,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -630,7 +629,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -649,7 +648,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -661,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -670,10 +669,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -704,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -747,25 +746,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -794,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.149999999999999" r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -821,7 +820,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
     </row>
-    <row ht="30" r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -841,7 +840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -861,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -881,7 +880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -901,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -921,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="30" r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
@@ -941,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
@@ -961,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="30" r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -981,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="30" r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="30" r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -1022,13 +1021,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -1037,16 +1036,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1090,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="3" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>33</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="4" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="5" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="6" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="7" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="8" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="9" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="10" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="11" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="12" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1477,37 +1476,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A12"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A12" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1554,7 +1553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="60" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1594,9 +1593,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7530" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,6 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,54 +282,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,10 +346,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -383,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +541,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -549,13 +550,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -565,7 +566,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -574,7 +575,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -583,7 +584,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -593,12 +594,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -629,7 +630,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -648,7 +649,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -660,7 +661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -669,10 +670,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -703,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -746,13 +747,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -761,10 +762,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -793,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.149999999999999" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -820,7 +821,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -840,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -860,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -880,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -900,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -920,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
@@ -940,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
@@ -960,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -980,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -1021,13 +1022,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -1036,16 +1037,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1089,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="3" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>33</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="4" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="5" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="6" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="7" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="8" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="9" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="10" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="11" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="12" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1476,16 +1477,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A12" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A12"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1494,19 +1495,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="7.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1553,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1593,9 +1594,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxWeek1CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
